--- a/Miguel.xlsx
+++ b/Miguel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Angel Saez\Desktop\Course 2018-2019\Q3\Flight Dynamics\SVV_FD_B23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9D421C-F9AE-49BF-BB60-3288E3EB875A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9169E-7C29-4CDA-8FBB-0CAF8BA43032}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="138">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>C_L^2</t>
+  </si>
+  <si>
+    <t>Cm_alpha</t>
   </si>
 </sst>
 </file>
@@ -492,13 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +552,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -835,22 +847,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.26736718745233662</c:v>
+                  <c:v>0.26735149138650505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3238947099881907</c:v>
+                  <c:v>0.32384827818784895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39870712061954405</c:v>
+                  <c:v>0.3985657310425807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61158663287739501</c:v>
+                  <c:v>0.61128612654707926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78653217271191711</c:v>
+                  <c:v>0.78576879521676424</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0613151760157591</c:v>
+                  <c:v>1.0639116277698055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,22 +874,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.1984893486797249E-2</c:v>
+                  <c:v>3.2546821328027102E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1770969456927228E-2</c:v>
+                  <c:v>3.2927020351463041E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1985244493450964E-2</c:v>
+                  <c:v>3.4514182351503629E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8741807615852879E-2</c:v>
+                  <c:v>4.170023731539798E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0945363736395556E-2</c:v>
+                  <c:v>5.6743791484765528E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9693046187290034E-2</c:v>
+                  <c:v>6.6081969433075705E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,6 +1195,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1065549694974873E-2"/>
+                  <c:y val="-3.7964984780366084E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$F$28:$F$33</c:f>
@@ -1217,22 +1243,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.26736718745233662</c:v>
+                  <c:v>0.26735149138650505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3238947099881907</c:v>
+                  <c:v>0.32384827818784895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39870712061954405</c:v>
+                  <c:v>0.3985657310425807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61158663287739501</c:v>
+                  <c:v>0.61128612654707926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78653217271191711</c:v>
+                  <c:v>0.78576879521676424</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0613151760157591</c:v>
+                  <c:v>1.0639116277698055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,22 +1591,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.1984893486797249E-2</c:v>
+                  <c:v>3.2546821328027102E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1770969456927228E-2</c:v>
+                  <c:v>3.2927020351463041E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1985244493450964E-2</c:v>
+                  <c:v>3.4514182351503629E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8741807615852879E-2</c:v>
+                  <c:v>4.170023731539798E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0945363736395556E-2</c:v>
+                  <c:v>5.6743791484765528E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9693046187290034E-2</c:v>
+                  <c:v>6.6081969433075705E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,6 +1866,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>CL^2-CD</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1864,56 +1893,100 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$28:$AB$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.1476819946588485E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10487770728523441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15885464196150678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37367072850893179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61743259953640517</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1319079517037973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$AA$28:$AA$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.1984893486797249E-2</c:v>
+                  <c:v>3.2546821328027102E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1770969456927228E-2</c:v>
+                  <c:v>3.2927020351463041E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1985244493450964E-2</c:v>
+                  <c:v>3.4514182351503629E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8741807615852879E-2</c:v>
+                  <c:v>4.170023731539798E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0945363736395556E-2</c:v>
+                  <c:v>5.6743791484765528E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9693046187290034E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AB$28:$AB$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7.1485212926172909E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10490778315833416</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15896736803272765</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.37403820951430955</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.61863285871092899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1263899028413618</c:v>
+                  <c:v>6.6081969433075705E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,6 +2185,372 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>delta_e/alpha</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$59:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$59:$G$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8202-40D0-9917-5953B3899BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="551142144"/>
+        <c:axId val="551142472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="551142144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551142472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="551142472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551142144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2152,7 +2591,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2814,6 +3809,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0FF3F9-B252-4788-81BA-B5FC66B0D735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3116,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I54" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="36" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I52" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="36" workbookViewId="0">
+      <selection activeCell="U87" sqref="U87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3255,11 +4286,11 @@
         <v>3.3273999999999999</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K16" si="1">J8*L8</f>
+        <f>J8*L8</f>
         <v>3002.0195433199997</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L16" si="2">H8*9.80665</f>
+        <f t="shared" ref="L8:L16" si="1">H8*9.80665</f>
         <v>902.21179999999993</v>
       </c>
     </row>
@@ -3279,11 +4310,11 @@
         <v>3.3273999999999999</v>
       </c>
       <c r="K9">
+        <f t="shared" ref="K8:K16" si="2">J9*L9</f>
+        <v>2904.1276016899997</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>2904.1276016899997</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
         <v>872.79184999999995</v>
       </c>
       <c r="N9" t="s">
@@ -3334,11 +4365,11 @@
         <v>4.3180000000000005</v>
       </c>
       <c r="K10">
+        <f t="shared" si="2"/>
+        <v>2964.1580289999997</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="1"/>
-        <v>2964.1580289999997</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
         <v>686.46549999999991</v>
       </c>
       <c r="N10" t="s">
@@ -3388,11 +4419,11 @@
         <v>5.4356000000000009</v>
       </c>
       <c r="K11">
+        <f t="shared" si="2"/>
+        <v>4051.1820322400004</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
-        <v>4051.1820322400004</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
         <v>745.30539999999996</v>
       </c>
       <c r="N11" t="s">
@@ -3439,11 +4470,11 @@
         <v>5.4356000000000009</v>
       </c>
       <c r="K12">
+        <f t="shared" si="2"/>
+        <v>4690.8423531200006</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="1"/>
-        <v>4690.8423531200006</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
         <v>862.98519999999996</v>
       </c>
       <c r="N12" t="s">
@@ -3490,11 +4521,11 @@
         <v>6.3754</v>
       </c>
       <c r="K13">
+        <f t="shared" si="2"/>
+        <v>4814.1413635700001</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
-        <v>4814.1413635700001</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
         <v>755.11204999999995</v>
       </c>
       <c r="N13" t="s">
@@ -3545,11 +4576,11 @@
         <v>6.3754</v>
       </c>
       <c r="K14">
+        <f t="shared" si="2"/>
+        <v>4188.9281994699995</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="1"/>
-        <v>4188.9281994699995</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
         <v>657.04554999999993</v>
       </c>
       <c r="N14" t="s">
@@ -3572,11 +4603,11 @@
         <v>7.3151999999999999</v>
       </c>
       <c r="K15">
+        <f t="shared" si="2"/>
+        <v>4447.73157696</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="1"/>
-        <v>4447.73157696</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
         <v>608.01229999999998</v>
       </c>
       <c r="N15" t="s">
@@ -3619,11 +4650,11 @@
         <v>7.3151999999999999</v>
       </c>
       <c r="K16">
+        <f t="shared" si="2"/>
+        <v>6384.6469411199996</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="1"/>
-        <v>6384.6469411199996</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
         <v>872.79184999999995</v>
       </c>
       <c r="N16" t="s">
@@ -3965,7 +4996,7 @@
         <v>326.07653514262455</v>
       </c>
       <c r="R28">
-        <f t="shared" ref="R28:R33" si="7">1.225*(((288.15-0.0065*(D28*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
+        <f>1.225*(((288.15-0.0065*(D28*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
         <v>0.84859186310327495</v>
       </c>
       <c r="S28">
@@ -3977,34 +5008,34 @@
         <v>123.87428333956294</v>
       </c>
       <c r="U28">
-        <f t="shared" ref="U28:U33" si="8">X28+Y28</f>
-        <v>7499.77</v>
+        <f>X28+Y28</f>
+        <v>7631.5300000000007</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="V28:V33" si="9">U28*COS(RADIANS(F28))</f>
-        <v>7496.8459524761984</v>
+        <f>U28*COS(RADIANS(F28))</f>
+        <v>7628.554581233916</v>
       </c>
       <c r="W28">
         <f>M28-U28*SIN(RADIANS(F28))</f>
-        <v>62667.415725626131</v>
+        <v>62663.736770507916</v>
       </c>
       <c r="X28">
-        <v>3697.8</v>
+        <v>3652.61</v>
       </c>
       <c r="Y28">
-        <v>3801.97</v>
+        <v>3978.92</v>
       </c>
       <c r="Z28">
         <f>W28/(0.5*R28*S28^2*$B$20)</f>
-        <v>0.26736718745233662</v>
+        <v>0.26735149138650505</v>
       </c>
       <c r="AA28">
         <f>V28/(0.5*R28*S28^2*$B$20)</f>
-        <v>3.1984893486797249E-2</v>
+        <v>3.2546821328027102E-2</v>
       </c>
       <c r="AB28">
         <f>Z28^2</f>
-        <v>7.1485212926172909E-2</v>
+        <v>7.1476819946588485E-2</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -4041,7 +5072,7 @@
         <v>306.62819200000001</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:L33" si="10">$H$20-K29</f>
+        <f t="shared" ref="L29:L33" si="7">$H$20-K29</f>
         <v>6397.5900879999999</v>
       </c>
       <c r="M29">
@@ -4049,27 +5080,27 @@
         <v>62738.926836485196</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29:N33" si="11">101325*(1+(-0.0065*D29*0.305)/273.15)^(-9.80665/(-0.0065*287))</f>
+        <f t="shared" ref="N29:N33" si="8">101325*(1+(-0.0065*D29*0.305)/273.15)^(-9.80665/(-0.0065*287))</f>
         <v>62707.123408601794</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:O33" si="12">SQRT(2/(1.4-1)*((1+101325/N29*((1+0.4/2.8*1.225/101325*(E29*0.514)^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <f t="shared" ref="O29:O33" si="9">SQRT(2/(1.4-1)*((1+101325/N29*((1+0.4/2.8*1.225/101325*(E29*0.514)^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
         <v>0.41337886948581681</v>
       </c>
       <c r="P29">
-        <f t="shared" ref="P29:P33" si="13">(273.15+J29)/(1+0.4/2*O29^2)</f>
+        <f t="shared" ref="P29:P33" si="10">(273.15+J29)/(1+0.4/2*O29^2)</f>
         <v>265.57364414197019</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q33" si="14">SQRT(1.4*287*P29)</f>
+        <f t="shared" ref="Q29:Q33" si="11">SQRT(1.4*287*P29)</f>
         <v>326.66112443363016</v>
       </c>
       <c r="R29">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="R29:R33" si="12">1.225*(((288.15-0.0065*(D29*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
         <v>0.84859186310327495</v>
       </c>
       <c r="S29">
-        <f t="shared" ref="S29:S33" si="15">Q29*O29*SQRT(R29/1.225)</f>
+        <f t="shared" ref="S29:S33" si="13">Q29*O29*SQRT(R29/1.225)</f>
         <v>112.38985556319705</v>
       </c>
       <c r="T29">
@@ -4077,34 +5108,34 @@
         <v>112.26654718061971</v>
       </c>
       <c r="U29">
-        <f t="shared" si="8"/>
-        <v>6134.88</v>
+        <f t="shared" ref="U28:U33" si="14">X29+Y29</f>
+        <v>6358.1100000000006</v>
       </c>
       <c r="V29">
-        <f t="shared" si="9"/>
-        <v>6129.9377106997126</v>
+        <f>U29*COS(RADIANS(F29))</f>
+        <v>6352.9878755211103</v>
       </c>
       <c r="W29">
-        <f t="shared" ref="W28:W33" si="16">M29-U29*SIN(RADIANS(F29))</f>
-        <v>62492.723105113044</v>
+        <f t="shared" ref="W29:W33" si="15">M29-U29*SIN(RADIANS(F29))</f>
+        <v>62483.764485066</v>
       </c>
       <c r="X29">
-        <v>3036.32</v>
+        <v>3068.09</v>
       </c>
       <c r="Y29">
-        <v>3098.56</v>
+        <v>3290.02</v>
       </c>
       <c r="Z29">
-        <f t="shared" ref="Z29:Z33" si="17">W29/(0.5*R29*S29^2*$B$20)</f>
-        <v>0.3238947099881907</v>
+        <f t="shared" ref="Z29:Z33" si="16">W29/(0.5*R29*S29^2*$B$20)</f>
+        <v>0.32384827818784895</v>
       </c>
       <c r="AA29">
-        <f t="shared" ref="AA29:AA33" si="18">V29/(0.5*R29*S29^2*$B$20)</f>
-        <v>3.1770969456927228E-2</v>
+        <f t="shared" ref="AA29:AA33" si="17">V29/(0.5*R29*S29^2*$B$20)</f>
+        <v>3.2927020351463041E-2</v>
       </c>
       <c r="AB29">
-        <f t="shared" ref="AB29:AB33" si="19">Z29^2</f>
-        <v>0.10490778315833416</v>
+        <f t="shared" ref="AB29:AB33" si="18">Z29^2</f>
+        <v>0.10487770728523441</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -4141,7 +5172,7 @@
         <v>317.51440000000002</v>
       </c>
       <c r="L30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6386.70388</v>
       </c>
       <c r="M30">
@@ -4149,62 +5180,62 @@
         <v>62632.169604801995</v>
       </c>
       <c r="N30">
+        <f t="shared" si="8"/>
+        <v>62707.123408601794</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>0.37201115554094472</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="10"/>
+        <v>265.79325211130543</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="11"/>
-        <v>62707.123408601794</v>
-      </c>
-      <c r="O30">
+        <v>326.7961577165841</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="12"/>
-        <v>0.37201115554094472</v>
-      </c>
-      <c r="P30">
+        <v>0.84859186310327495</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="13"/>
-        <v>265.79325211130543</v>
-      </c>
-      <c r="Q30">
+        <v>101.18457042201341</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ref="T30:T33" si="19">S30*SQRT(M30/M29)</f>
+        <v>101.09844539274995</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="14"/>
-        <v>326.7961577165841</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="7"/>
-        <v>0.84859186310327495</v>
-      </c>
-      <c r="S30">
+        <v>5405.99</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ref="V28:V33" si="20">U30*COS(RADIANS(F30))</f>
+        <v>5397.5607867601475</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="15"/>
-        <v>101.18457042201341</v>
-      </c>
-      <c r="T30">
-        <f t="shared" ref="T30:T33" si="20">S30*SQRT(M30/M29)</f>
-        <v>101.09844539274995</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="8"/>
-        <v>5009.88</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="9"/>
-        <v>5002.0684156600228</v>
-      </c>
-      <c r="W30">
+        <v>62330.399107024001</v>
+      </c>
+      <c r="X30">
+        <v>2562.69</v>
+      </c>
+      <c r="Y30">
+        <v>2843.3</v>
+      </c>
+      <c r="Z30">
         <f t="shared" si="16"/>
-        <v>62352.510563366843</v>
-      </c>
-      <c r="X30">
-        <v>2441.09</v>
-      </c>
-      <c r="Y30">
-        <v>2568.79</v>
-      </c>
-      <c r="Z30">
+        <v>0.3985657310425807</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="17"/>
-        <v>0.39870712061954405</v>
-      </c>
-      <c r="AA30">
+        <v>3.4514182351503629E-2</v>
+      </c>
+      <c r="AB30">
         <f t="shared" si="18"/>
-        <v>3.1985244493450964E-2</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="19"/>
-        <v>0.15896736803272765</v>
+        <v>0.15885464196150678</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -4241,7 +5272,7 @@
         <v>327.493424</v>
       </c>
       <c r="L31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6376.7248559999998</v>
       </c>
       <c r="M31">
@@ -4249,62 +5280,62 @@
         <v>62534.308809092392</v>
       </c>
       <c r="N31">
+        <f t="shared" si="8"/>
+        <v>62720.230445565801</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>0.30014566740084059</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="10"/>
+        <v>265.1722629078044</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="11"/>
-        <v>62720.230445565801</v>
-      </c>
-      <c r="O31">
+        <v>326.41417744386627</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="12"/>
-        <v>0.30014566740084059</v>
-      </c>
-      <c r="P31">
+        <v>0.84872721430781117</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="13"/>
-        <v>265.1722629078044</v>
-      </c>
-      <c r="Q31">
+        <v>81.548713101097078</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="19"/>
+        <v>81.484979545874168</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="14"/>
-        <v>326.41417744386627</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="7"/>
-        <v>0.84872721430781117</v>
-      </c>
-      <c r="S31">
+        <v>4258.3600000000006</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="20"/>
+        <v>4236.5602152481588</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="15"/>
-        <v>81.548713101097078</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="20"/>
-        <v>81.484979545874168</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="8"/>
-        <v>3956.25</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="9"/>
-        <v>3935.9968043038934</v>
-      </c>
-      <c r="W31">
+        <v>62103.974715420423</v>
+      </c>
+      <c r="X31">
+        <v>1971.27</v>
+      </c>
+      <c r="Y31">
+        <v>2287.09</v>
+      </c>
+      <c r="Z31">
         <f t="shared" si="16"/>
-        <v>62134.504833362364</v>
-      </c>
-      <c r="X31">
-        <v>1900.98</v>
-      </c>
-      <c r="Y31">
-        <v>2055.27</v>
-      </c>
-      <c r="Z31">
+        <v>0.61128612654707926</v>
+      </c>
+      <c r="AA31">
         <f t="shared" si="17"/>
-        <v>0.61158663287739501</v>
-      </c>
-      <c r="AA31">
+        <v>4.170023731539798E-2</v>
+      </c>
+      <c r="AB31">
         <f t="shared" si="18"/>
-        <v>3.8741807615852879E-2</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="19"/>
-        <v>0.37403820951430955</v>
+        <v>0.37367072850893179</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
@@ -4341,7 +5372,7 @@
         <v>340.19400000000002</v>
       </c>
       <c r="L32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6364.0242799999996</v>
       </c>
       <c r="M32">
@@ -4349,62 +5380,62 @@
         <v>62409.758705461994</v>
       </c>
       <c r="N32">
+        <f t="shared" si="8"/>
+        <v>62654.717438887521</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>0.26420596874271379</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="10"/>
+        <v>265.44414522904168</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="11"/>
-        <v>62654.717438887521</v>
-      </c>
-      <c r="O32">
+        <v>326.58147153968935</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="12"/>
-        <v>0.26420596874271379</v>
-      </c>
-      <c r="P32">
+        <v>0.8480506234114632</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="13"/>
-        <v>265.44414522904168</v>
-      </c>
-      <c r="Q32">
+        <v>71.792158457626925</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="19"/>
+        <v>71.720628303136962</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="14"/>
-        <v>326.58147153968935</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="7"/>
-        <v>0.8480506234114632</v>
-      </c>
-      <c r="S32">
+        <v>4502.96</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="20"/>
+        <v>4464.4365529718134</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="15"/>
-        <v>71.792158457626925</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="20"/>
-        <v>71.720628303136962</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="8"/>
-        <v>4042.8199999999997</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="9"/>
-        <v>4008.2331144592677</v>
-      </c>
-      <c r="W32">
+        <v>61822.004482942793</v>
+      </c>
+      <c r="X32">
+        <v>2101.08</v>
+      </c>
+      <c r="Y32">
+        <v>2401.88</v>
+      </c>
+      <c r="Z32">
         <f t="shared" si="16"/>
-        <v>61882.064805030925</v>
-      </c>
-      <c r="X32">
-        <v>1928.66</v>
-      </c>
-      <c r="Y32">
-        <v>2114.16</v>
-      </c>
-      <c r="Z32">
+        <v>0.78576879521676424</v>
+      </c>
+      <c r="AA32">
         <f t="shared" si="17"/>
-        <v>0.78653217271191711</v>
-      </c>
-      <c r="AA32">
+        <v>5.6743791484765528E-2</v>
+      </c>
+      <c r="AB32">
         <f t="shared" si="18"/>
-        <v>5.0945363736395556E-2</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="19"/>
-        <v>0.61863285871092899</v>
+        <v>0.61743259953640517</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
@@ -4441,7 +5472,7 @@
         <v>351.08020799999997</v>
       </c>
       <c r="L33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6353.1380719999997</v>
       </c>
       <c r="M33">
@@ -4449,62 +5480,62 @@
         <v>62303.001473778793</v>
       </c>
       <c r="N33">
+        <f t="shared" si="8"/>
+        <v>62812.041835283053</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="9"/>
+        <v>0.22583215630039688</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="10"/>
+        <v>266.23440044583344</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="11"/>
-        <v>62812.041835283053</v>
-      </c>
-      <c r="O33">
+        <v>327.06724400211016</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="12"/>
-        <v>0.22583215630039688</v>
-      </c>
-      <c r="P33">
+        <v>0.84967513524967364</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="13"/>
-        <v>266.23440044583344</v>
-      </c>
-      <c r="Q33">
+        <v>61.515030409579396</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="19"/>
+        <v>61.462394529208225</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="14"/>
-        <v>327.06724400211016</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="7"/>
-        <v>0.84967513524967364</v>
-      </c>
-      <c r="S33">
+        <v>3893.4300000000003</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="20"/>
+        <v>3824.4666506045987</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="15"/>
-        <v>61.515030409579396</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="20"/>
-        <v>61.462394529208225</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="8"/>
-        <v>4695.37</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="9"/>
-        <v>4612.2020884539634</v>
-      </c>
-      <c r="W33">
+        <v>61573.445442131298</v>
+      </c>
+      <c r="X33">
+        <v>1849.74</v>
+      </c>
+      <c r="Y33">
+        <v>2043.69</v>
+      </c>
+      <c r="Z33">
         <f t="shared" si="16"/>
-        <v>61423.176870712421</v>
-      </c>
-      <c r="X33">
-        <v>2248.44</v>
-      </c>
-      <c r="Y33">
-        <v>2446.9299999999998</v>
-      </c>
-      <c r="Z33">
+        <v>1.0639116277698055</v>
+      </c>
+      <c r="AA33">
         <f t="shared" si="17"/>
-        <v>1.0613151760157591</v>
-      </c>
-      <c r="AA33">
+        <v>6.6081969433075705E-2</v>
+      </c>
+      <c r="AB33">
         <f t="shared" si="18"/>
-        <v>7.9693046187290034E-2</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="19"/>
-        <v>1.1263899028413618</v>
+        <v>1.1319079517037973</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
@@ -4795,7 +5826,7 @@
         <v>-3.1</v>
       </c>
       <c r="N59">
-        <f t="shared" ref="N59:N64" si="21">L59*0.453592</f>
+        <f t="shared" ref="N59:N61" si="21">L59*0.453592</f>
         <v>404.60406399999999</v>
       </c>
       <c r="O59">
@@ -4803,7 +5834,7 @@
         <v>6299.6142159999999</v>
       </c>
       <c r="P59">
-        <f t="shared" ref="P59:P64" si="22">O59*9.80665</f>
+        <f t="shared" ref="P59:P61" si="22">O59*9.80665</f>
         <v>61778.111751336393</v>
       </c>
       <c r="Q59">
@@ -4886,15 +5917,15 @@
         <v>61862.627893085591</v>
       </c>
       <c r="Q60">
-        <f t="shared" ref="Q60:Q64" si="23">101325*(1+(-0.0065*D60*0.305)/273.15)^(-9.80665/(-0.0065*287))</f>
+        <f t="shared" ref="Q60:Q61" si="23">101325*(1+(-0.0065*D60*0.305)/273.15)^(-9.80665/(-0.0065*287))</f>
         <v>63391.637269271603</v>
       </c>
       <c r="R60">
-        <f t="shared" ref="R60:R64" si="24">SQRT(2/(1.4-1)*((1+101325/Q60*((1+0.4/2.8*1.225/101325*(E60*0.514)^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <f t="shared" ref="R60:R61" si="24">SQRT(2/(1.4-1)*((1+101325/Q60*((1+0.4/2.8*1.225/101325*(E60*0.514)^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
         <v>0.28348478672632055</v>
       </c>
       <c r="S60">
-        <f t="shared" ref="S60:S64" si="25">(273.15+M60)/(1+0.4/2*R60^2)</f>
+        <f t="shared" ref="S60:S61" si="25">(273.15+M60)/(1+0.4/2*R60^2)</f>
         <v>266.86081947242445</v>
       </c>
       <c r="T60">
@@ -4902,15 +5933,15 @@
         <v>327.45179380180548</v>
       </c>
       <c r="U60">
-        <f t="shared" ref="U60:U64" si="27">Q60/(S60*287)</f>
+        <f t="shared" ref="U60:U61" si="27">Q60/(S60*287)</f>
         <v>0.82768532805610273</v>
       </c>
       <c r="V60">
-        <f t="shared" ref="V60:V64" si="28">T60*R60*SQRT(U60/1.225)</f>
+        <f t="shared" ref="V60:V61" si="28">T60*R60*SQRT(U60/1.225)</f>
         <v>76.30301788904201</v>
       </c>
       <c r="W60">
-        <f t="shared" ref="W60:W64" si="29">V60*SQRT(P60/P59)</f>
+        <f t="shared" ref="W60:W62" si="29">V60*SQRT(P60/P59)</f>
         <v>76.35519359012892</v>
       </c>
     </row>
@@ -4957,7 +5988,7 @@
         <v>389.63552800000002</v>
       </c>
       <c r="O61">
-        <f t="shared" ref="O61:O64" si="30">$H$20-N61</f>
+        <f t="shared" ref="O61" si="30">$H$20-N61</f>
         <v>6314.5827520000003</v>
       </c>
       <c r="P61">
@@ -4995,247 +6026,241 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B62" s="7">
-        <v>3.3842592592592598E-2</v>
+        <v>3.2199074074074074E-2</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3">
-        <v>10810</v>
+        <v>11140</v>
       </c>
       <c r="E62" s="3">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F62" s="3">
-        <v>5.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G62" s="3">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H62" s="3">
         <v>2.7</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J62" s="3">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K62" s="3">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L62" s="3">
-        <v>948</v>
+        <v>914</v>
       </c>
       <c r="M62" s="3">
-        <v>-1.5</v>
+        <v>0.2</v>
       </c>
       <c r="N62">
-        <f t="shared" si="21"/>
-        <v>430.00521600000002</v>
+        <f>L62*0.453592</f>
+        <v>414.58308799999998</v>
       </c>
       <c r="O62">
-        <f t="shared" si="30"/>
-        <v>6274.2130639999996</v>
+        <f>$H$20-N62</f>
+        <v>6289.6351919999997</v>
       </c>
       <c r="P62">
-        <f t="shared" si="22"/>
-        <v>61529.011544075591</v>
+        <f>O62*9.80665</f>
+        <v>61680.250955626791</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="23"/>
-        <v>65944.390509253382</v>
+        <f>101325*(1+(-0.0065*D62*0.305)/273.15)^(-9.80665/(-0.0065*287))</f>
+        <v>65048.382669531355</v>
       </c>
       <c r="R62">
-        <f t="shared" si="24"/>
-        <v>0.29842849947900552</v>
+        <f>SQRT(2/(1.4-1)*((1+101325/Q62*((1+0.4/2.8*1.225/101325*(E62*0.514)^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <v>0.31718985285243695</v>
       </c>
       <c r="S62">
-        <f t="shared" si="25"/>
-        <v>266.89607018816696</v>
+        <f>(273.15+M62)/(1+0.4/2*R62^2)</f>
+        <v>267.95817755863277</v>
       </c>
       <c r="T62">
-        <f t="shared" si="26"/>
-        <v>327.47342029790065</v>
+        <f>SQRT(1.4*287*S62)</f>
+        <v>328.12436017927507</v>
       </c>
       <c r="U62">
-        <f t="shared" si="27"/>
-        <v>0.86090213070815058</v>
+        <f>Q62/(S62*287)</f>
+        <v>0.8458387761553362</v>
       </c>
       <c r="V62">
-        <f t="shared" si="28"/>
-        <v>81.926650236417373</v>
+        <f>T62*R62*SQRT(U62/1.225)</f>
+        <v>86.483550412126107</v>
       </c>
       <c r="W62">
-        <f t="shared" si="29"/>
-        <v>81.664348160828197</v>
+        <f>V62*SQRT(P62/P61)</f>
+        <v>86.312542376013198</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63" s="7">
-        <v>3.2199074074074074E-2</v>
+        <v>3.3067129629629634E-2</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3">
-        <v>11140</v>
+        <v>10640</v>
       </c>
       <c r="E63" s="3">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F63" s="3">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="G63" s="3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H63" s="3">
         <v>2.7</v>
       </c>
       <c r="I63" s="3">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J63" s="3">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K63" s="3">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="L63" s="3">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="M63" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="21"/>
-        <v>414.58308799999998</v>
+        <f>L63*0.453592</f>
+        <v>423.20133599999997</v>
       </c>
       <c r="O63">
-        <f t="shared" si="30"/>
-        <v>6289.6351919999997</v>
+        <f>$H$20-N63</f>
+        <v>6281.016944</v>
       </c>
       <c r="P63">
-        <f t="shared" si="22"/>
-        <v>61680.250955626791</v>
+        <f>O63*9.80665</f>
+        <v>61595.7348138776</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="23"/>
-        <v>65048.382669531355</v>
+        <f>101325*(1+(-0.0065*D63*0.305)/273.15)^(-9.80665/(-0.0065*287))</f>
+        <v>66409.855215522417</v>
       </c>
       <c r="R63">
-        <f t="shared" si="24"/>
-        <v>0.31718985285243695</v>
+        <f>SQRT(2/(1.4-1)*((1+101325/Q63*((1+0.4/2.8*1.225/101325*(E63*0.514)^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <v>0.33425702291170822</v>
       </c>
       <c r="S63">
-        <f t="shared" si="25"/>
-        <v>267.95817755863277</v>
+        <f>(273.15+M63)/(1+0.4/2*R63^2)</f>
+        <v>267.17972177450332</v>
       </c>
       <c r="T63">
-        <f t="shared" si="26"/>
-        <v>328.12436017927507</v>
+        <f>SQRT(1.4*287*S63)</f>
+        <v>327.64739005369086</v>
       </c>
       <c r="U63">
-        <f t="shared" si="27"/>
-        <v>0.8458387761553362</v>
+        <f>Q63/(S63*287)</f>
+        <v>0.86605833036519941</v>
       </c>
       <c r="V63">
-        <f t="shared" si="28"/>
-        <v>86.483550412126107</v>
+        <f>T63*R63*SQRT(U63/1.225)</f>
+        <v>92.085824503744817</v>
       </c>
       <c r="W63">
-        <f t="shared" si="29"/>
-        <v>86.589774234522878</v>
+        <f>V63*SQRT(P63/P62)</f>
+        <v>92.022713488953414</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>5</v>
-      </c>
-      <c r="B64" s="7">
-        <v>3.3067129629629634E-2</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3">
-        <v>10640</v>
-      </c>
-      <c r="E64" s="3">
-        <v>180</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="H64" s="3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66" s="7">
+        <v>3.3842592592592598E-2</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3">
+        <v>10810</v>
+      </c>
+      <c r="E66" s="3">
+        <v>160</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="G66" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="H66" s="3">
         <v>2.7</v>
       </c>
-      <c r="I64" s="3">
-        <v>49</v>
-      </c>
-      <c r="J64" s="3">
-        <v>417</v>
-      </c>
-      <c r="K64" s="3">
-        <v>455</v>
-      </c>
-      <c r="L64" s="3">
-        <v>933</v>
-      </c>
-      <c r="M64" s="3">
+      <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="N64">
-        <f t="shared" si="21"/>
-        <v>423.20133599999997</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="30"/>
-        <v>6281.016944</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="22"/>
-        <v>61595.7348138776</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" si="23"/>
-        <v>66409.855215522417</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="24"/>
-        <v>0.33425702291170822</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="25"/>
-        <v>267.17972177450332</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="26"/>
-        <v>327.64739005369086</v>
-      </c>
-      <c r="U64">
-        <f t="shared" si="27"/>
-        <v>0.86605833036519941</v>
-      </c>
-      <c r="V64">
-        <f t="shared" si="28"/>
-        <v>92.085824503744817</v>
-      </c>
-      <c r="W64">
-        <f t="shared" si="29"/>
-        <v>92.022713488953414</v>
+      <c r="J66" s="3">
+        <v>412</v>
+      </c>
+      <c r="K66" s="3">
+        <v>448</v>
+      </c>
+      <c r="L66" s="3">
+        <v>948</v>
+      </c>
+      <c r="M66" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ref="N66" si="31">L66*0.453592</f>
+        <v>430.00521600000002</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ref="O66" si="32">$H$20-N66</f>
+        <v>6274.2130639999996</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66" si="33">O66*9.80665</f>
+        <v>61529.011544075591</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66" si="34">101325*(1+(-0.0065*D66*0.305)/273.15)^(-9.80665/(-0.0065*287))</f>
+        <v>65944.390509253382</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ref="R66" si="35">SQRT(2/(1.4-1)*((1+101325/Q66*((1+0.4/2.8*1.225/101325*(E66*0.514)^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <v>0.29842849947900552</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ref="S66" si="36">(273.15+M66)/(1+0.4/2*R66^2)</f>
+        <v>266.89607018816696</v>
+      </c>
+      <c r="T66">
+        <f t="shared" ref="T66" si="37">SQRT(1.4*287*S66)</f>
+        <v>327.47342029790065</v>
+      </c>
+      <c r="U66">
+        <f t="shared" ref="U66" si="38">Q66/(S66*287)</f>
+        <v>0.86090213070815058</v>
+      </c>
+      <c r="V66">
+        <f t="shared" ref="V66" si="39">T66*R66*SQRT(U66/1.225)</f>
+        <v>81.926650236417373</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>7</v>
+      </c>
       <c r="B67" s="8">
         <v>3.4664351851851849E-2</v>
       </c>
@@ -5271,7 +6296,7 @@
         <v>-2.5</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67" si="31">L67*0.453592</f>
+        <f t="shared" ref="N67" si="40">L67*0.453592</f>
         <v>437.71627999999998</v>
       </c>
       <c r="O67">
@@ -5279,19 +6304,19 @@
         <v>6266.5020000000004</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67" si="32">O67*9.80665</f>
+        <f t="shared" ref="P67" si="41">O67*9.80665</f>
         <v>61453.391838299998</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67" si="33">101325*(1+(-0.0065*D67*0.305)/273.15)^(-9.80665/(-0.0065*287))</f>
+        <f t="shared" ref="Q67" si="42">101325*(1+(-0.0065*D67*0.305)/273.15)^(-9.80665/(-0.0065*287))</f>
         <v>65780.741031411613</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67" si="34">SQRT(2/(1.4-1)*((1+101325/Q67*((1+0.4/2.8*1.225/101325*(E67*0.514)^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <f t="shared" ref="R67" si="43">SQRT(2/(1.4-1)*((1+101325/Q67*((1+0.4/2.8*1.225/101325*(E67*0.514)^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
         <v>0.29879142548031667</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67" si="35">(273.15+M67)/(1+0.4/2*R67^2)</f>
+        <f t="shared" ref="S67" si="44">(273.15+M67)/(1+0.4/2*R67^2)</f>
         <v>265.90224542561566</v>
       </c>
       <c r="T67">
@@ -5299,30 +6324,26 @@
         <v>326.86315517661569</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67" si="36">Q67/(S67*287)</f>
+        <f t="shared" ref="U67" si="45">Q67/(S67*287)</f>
         <v>0.86197537706343186</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67" si="37">T67*R67*SQRT(U67/1.225)</f>
+        <f t="shared" ref="V67" si="46">T67*R67*SQRT(U67/1.225)</f>
         <v>81.924440582244088</v>
       </c>
-      <c r="W67">
-        <f>V67*SQRT(P67/P64)</f>
-        <v>81.829725310106312</v>
-      </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>87</v>
       </c>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -5332,7 +6353,7 @@
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -5394,7 +6415,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>81</v>
       </c>
@@ -5444,7 +6465,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5483,11 +6504,11 @@
         <v>-1.5</v>
       </c>
       <c r="N75">
-        <f t="shared" ref="N75:N76" si="38">L75*0.453592</f>
+        <f t="shared" ref="N75:N76" si="47">L75*0.453592</f>
         <v>430.00521600000002</v>
       </c>
       <c r="O75">
-        <f t="shared" ref="O75:O76" si="39">$H$20-N75</f>
+        <f t="shared" ref="O75:O76" si="48">$H$20-N75</f>
         <v>6274.2130639999996</v>
       </c>
       <c r="P75">
@@ -5511,7 +6532,7 @@
         <v>0.59778848253413042</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -5550,11 +6571,11 @@
         <v>-2.5</v>
       </c>
       <c r="N76">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>437.71627999999998</v>
       </c>
       <c r="O76">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>6266.5020000000004</v>
       </c>
       <c r="P76">
@@ -5578,12 +6599,12 @@
         <v>0.60247589126800472</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M78" t="s">
         <v>116</v>
       </c>
@@ -5612,7 +6633,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
@@ -5635,7 +6656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M80">
         <f>N80*0.453592</f>
         <v>1407.0423840000001</v>
@@ -5673,7 +6694,7 @@
         <v>-1.2625052112676054</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>91</v>
       </c>
@@ -5720,7 +6741,7 @@
         <v>-1.7528325352112666</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>81</v>
       </c>
@@ -5731,7 +6752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -5751,7 +6772,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -5773,7 +6794,7 @@
       <c r="M84" t="s">
         <v>110</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="12" t="s">
         <v>109</v>
       </c>
       <c r="O84" t="s">
@@ -5797,12 +6818,15 @@
       <c r="U84" t="s">
         <v>128</v>
       </c>
+      <c r="V84" s="12" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M85" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N85" s="12"/>
+      <c r="N85" s="11"/>
       <c r="O85" s="5" t="s">
         <v>77</v>
       </c>
@@ -5812,23 +6836,24 @@
       <c r="Q85" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="V85" s="12"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M86">
-        <f>P75/(1/2*O86*P86^2*30)</f>
-        <v>0.69748995783361156</v>
-      </c>
-      <c r="N86" s="12">
-        <f>-(1/($G$76-$G$75))*M86*(U86/2.0569)</f>
-        <v>-4.6301215181421169E-2</v>
+        <f>P75/(1/2*O86*P86^2*36)</f>
+        <v>0.59156606697514802</v>
+      </c>
+      <c r="N86" s="11">
+        <f>-(1/RADIANS($G$76-$G$75))*M86*($U$86/2.0569)</f>
+        <v>-2.2499885955121055</v>
       </c>
       <c r="O86">
-        <f>1.225*(((288.15-0.0065*(D75*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
-        <v>0.88183172728763926</v>
+        <f>U66</f>
+        <v>0.86090213070815058</v>
       </c>
       <c r="P86">
-        <f>W62</f>
-        <v>81.664348160828197</v>
+        <f>V66</f>
+        <v>81.926650236417373</v>
       </c>
       <c r="Q86">
         <f>(Q80+P80+$Q$10)/(O75*9.80665)</f>
@@ -5850,23 +6875,27 @@
         <f>T87-T86</f>
         <v>-5.4616969570411678E-2</v>
       </c>
+      <c r="V86" s="12">
+        <f>-(-0.4809)*N88</f>
+        <v>-1.080710938169932</v>
+      </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M87">
-        <f>P76/(1/2*O87*P87^2*30)</f>
-        <v>0.69513731080093333</v>
-      </c>
-      <c r="N87" s="12">
-        <f>-(1/($G$76-$G$75))*M87*($U$86/2.0569)</f>
-        <v>-4.6145040292761411E-2</v>
+        <f>P76/(1/2*O87*P87^2*36)</f>
+        <v>0.59013520555036436</v>
+      </c>
+      <c r="N87" s="11">
+        <f>-(1/RADIANS($G$76-$G$75))*M87*($U$86/2.0569)</f>
+        <v>-2.2445463937577297</v>
       </c>
       <c r="O87">
-        <f>1.225*(((288.15-0.0065*(D76*0.3048))/288.15)^(-9.80665/(-0.0065*287.05)-1))</f>
-        <v>0.88016037581079387</v>
+        <f>U67</f>
+        <v>0.86197537706343186</v>
       </c>
       <c r="P87">
-        <f>W67</f>
-        <v>81.829725310106312</v>
+        <f>V67</f>
+        <v>81.924440582244088</v>
       </c>
       <c r="Q87">
         <f>(Q81+P81+$Q$10)/(O76*9.80665)</f>
@@ -5885,109 +6914,119 @@
         <v>0.45444356337524489</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N88" s="11">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N88" s="12">
         <f>(N86+N87)/2</f>
-        <v>-4.6223127737091294E-2</v>
+        <v>-2.2472674946349178</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A59:R66">
     <sortCondition ref="G59"/>
   </sortState>
-  <conditionalFormatting sqref="B34:J34 B59:C64 B67:C67">
-    <cfRule type="expression" dxfId="11" priority="13">
+  <conditionalFormatting sqref="B34:J34 B67:C67 B59:C63">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C33">
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="8" priority="20">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="6" priority="19">
+    <cfRule type="expression" dxfId="7" priority="21">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="expression" dxfId="5" priority="20">
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="expression" dxfId="4" priority="22">
+    <cfRule type="expression" dxfId="5" priority="24">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="3" priority="23">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:J33 D76:M76 D59:M64 D67:M67">
-    <cfRule type="expression" priority="11">
+  <conditionalFormatting sqref="D28:J33 D76:M76 D67:M67 D59:M63">
+    <cfRule type="expression" priority="13">
       <formula>LEN(TRIM(D28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B33">
-    <cfRule type="expression" priority="10">
+    <cfRule type="expression" priority="12">
       <formula>LEN(TRIM(B29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="expression" priority="7">
+    <cfRule type="expression" priority="9">
       <formula>LEN(TRIM(B76))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="expression" priority="4">
+    <cfRule type="expression" priority="6">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="expression" priority="5">
+    <cfRule type="expression" priority="7">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="expression" priority="6">
+    <cfRule type="expression" priority="8">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>LEN(TRIM(C75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:M75">
+    <cfRule type="expression" priority="3">
+      <formula>LEN(TRIM(D75))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:C66">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>LEN(TRIM(B66))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66:M66">
     <cfRule type="expression" priority="1">
-      <formula>LEN(TRIM(D75))=0</formula>
+      <formula>LEN(TRIM(D66))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
